--- a/jobs.xlsx
+++ b/jobs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\upwork job hunt\Taishi Matsuoka\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFDA307B-9D37-4818-91A4-C22A09390055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87D5749D-51FD-4BF6-BE08-1564F39EB7CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="293">
   <si>
     <t>company_name</t>
   </si>
@@ -418,125 +418,6 @@
     <t>中小</t>
   </si>
   <si>
-    <t>101 ~ 300名</t>
-  </si>
-  <si>
-    <t>1996年</t>
-  </si>
-  <si>
-    <t>未上場</t>
-  </si>
-  <si>
-    <t>https://circus-job.com/search/209380</t>
-  </si>
-  <si>
-    <t>【提案営業】コインパーキング「Ecolo Park」の提案／業界3位/24期増収/年休125日 | circus</t>
-  </si>
-  <si>
-    <t>（不動産管理、設備管理・メンテナンス、資産運用・アセットマネジメント）</t>
-  </si>
-  <si>
-    <t>用地仕入、フィールドセールス（法人向け）</t>
-  </si>
-  <si>
-    <t>「土地を駐車場にしませんか？」──あなたの提案が街の景色を変えるお仕事です♪
-＼ 仕事内容 ／
-━━━━━━━
-・不動産会社を訪問し「土地をコインパーキングにしませんか？」とご提案
-・現地で土地の立地や広さを確認
-・契約後は設計・工事チームと連携してフォロー
-＼ 営業スタイルも自分らしく ／
-━━━━━━━━━━━━━━
-エコロシティの営業は、あなたの個性や得意を活かせる2つのチームがあります。
-■ 新規営業チーム
-─ 「新しい人と話すのが楽しい」方に
-・まだ出会っていないお客様に提案
-・自分の行動次第で成果が変わる楽しさ
-■ 既存営業チーム
-─ 「信頼関係を築くのが得意」な方に
-・既存のお客様とさらに関係を深める
-・大手企業とのやり取りや大規模案件もあり
-・スケールの大きな仕事に挑戦したい方にもぴったり</t>
-  </si>
-  <si>
-    <t>東京、大阪</t>
-  </si>
-  <si>
-    <t>388万円~480万円</t>
-  </si>
-  <si>
-    <t>388</t>
-  </si>
-  <si>
-    <t>480</t>
-  </si>
-  <si>
-    <t>20歳~34歳
-性別不問
-外国籍NG
-学歴不問
-職種未経験OK
-業種未経験OK
-社会人経験1年以上（正社員）</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>外国籍NG</t>
-  </si>
-  <si>
-    <t>【歓迎条件】
-・営業経験者優遇
-・接客・販売経験者歓迎（数字を意識しながら働いていた方）
-・人と話すことが好きな方
-・長く働きたい方
-・未経験者
-・第二新卒
-＼1つでも当てはまれば活躍の素質あり／
-・人と話すことが好きな方
-・お客様に興味を持てる聞き上手な方
-・素直に人の意見を取り入れられる方
-・目標に向かって意欲的に動ける方
-中途入社の先輩たちからは「エコロシティの営業は未経験からでも挑戦しやすい」と声が上がっています。
-提案型の営業かつチーム体制なので営業初挑戦の方にもおすすめです◎
-また、過度な残業などもありませんし、ライフイベントへの理解もあります。
-【未経験入社多数！先輩の前職はさまざま】
-パティシエ、ネイリスト、ドレスコーディネーター、セラピスト、日本語講師、
-店長、寝具販売員、携帯販売員、アパレルスタッフ、フリーターなど
-※必須ではありませんが、接客・販売・営業など人と関わる仕事や提案のご経験がある方、
-FP・宅建の資格をお持ちの方は歓迎します。</t>
-  </si>
-  <si>
-    <t>こんな求職者の方にご提案下さい
-面接確約条件あり
- 以下に該当する方は書類選考免除となります
-20歳〜34歳
-学歴不問
-・不動産営業経験1年以上の方</t>
-  </si>
-  <si>
-    <t>30%未満</t>
-  </si>
-  <si>
-    <t>80名</t>
-  </si>
-  <si>
-    <t>700万円以上: 1 Documents_passed, 0 Job_offer
-450万円~699万円: 9 Documents_passed, 1 Job_offer
-300万円~449万円: 20 Documents_passed, 4 Job_offer
-300万円未満: 3 Documents_passed, 0 Job_offer</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>15.2%</t>
-  </si>
-  <si>
     <t>株式会社KITEN</t>
   </si>
   <si>
@@ -546,491 +427,24 @@
     <t>ベンチャー</t>
   </si>
   <si>
-    <t>51 ~ 100名</t>
-  </si>
-  <si>
-    <t>2020年</t>
-  </si>
-  <si>
-    <t>https://circus-job.com/search/322365</t>
-  </si>
-  <si>
-    <t>【Webマーケター】★完全未経験OK★／売上成長率140％の成長ベンチャー！／ベストベンチャー100に選出！／平均年収800万！／未経験から事業成長に貢献！／成果報酬型マーケティング支援！ | circus</t>
-  </si>
-  <si>
-    <t>（広告制作・Webサイト制作）</t>
-  </si>
-  <si>
-    <t>Web広告運用・SEO、Webコンテンツ企画、プランナー（戦略・広告メディア）</t>
-  </si>
-  <si>
-    <t>ｰｰｰｰｰｰｰｰｰｰｰｰｰｰｰｰｰｰｰｰｰｰｰｰｰｰｰｰｰｰｰｰ
-　　　　🟢仕事内容🟢
-ｰｰｰｰｰｰｰｰｰｰｰｰｰｰｰｰｰｰｰｰｰｰｰｰｰｰｰｰｰｰｰｰ
-①マーケティング戦略の立案
-・3C分析・競合リサーチ
-市場トレンドや競合他社の商品、ユーザーのインサイト（悩み・購買動機）を深掘り
-・コンセプト設計
-「誰に・何を・どの媒体で」届けるかという勝ち筋を論理的に策定
-・KPI・予算計画
-目標達成のためのCPAやROASを設定し、リスクとリターンを計算した上で予算配分を決定
-②クリエイティブの企画・制作ディレクション
-・企画、ライティング
-SNS運用、バナーのキャッチコピー、記事LPのライティングを実施。「冒頭2秒のフック」などを緻密に計算
-・制作ディレクション
-デザイナー、動画編集者、イラストレーターへの発注・指示出し
-③広告運用・数値分析・改善 
-・広告出稿、予算管理
-媒体への入稿作業および、成果に合わせた予算配分の調整（アロケーション）
-・数値分析・改善策定
-日々の配信データ（クリック率、成約率など）を分析➡改善案の策定、顧客へのコンサルティング
-ｰｰｰｰｰｰｰｰｰｰｰｰｰｰｰｰｰｰｰｰｰｰｰｰｰｰｰｰｰｰｰｰ
-　　🟢ポジションの魅力🟢
-ｰｰｰｰｰｰｰｰｰｰｰｰｰｰｰｰｰｰｰｰｰｰｰｰｰｰｰｰｰｰｰｰ
-①予算上限なし、青天井の裁量権
-成果報酬型のため、利益が出るなら広告予算は無制限。
-数千万円規模のプロモーションも個人の判断で動かせます。
-②「事業を作る力」が身につく
-戦略立案・台本制作・運用・分析までを一気通貫で担当するため、
-どこでも通用するフルスタックなスキルが手に入ります。
-③月利1,000万プレイヤーによる直指導
-トップマーケターや事業部長がすぐ側でプレイングマネージャーとして稼動。
-思考法やノウハウを直接吸収できる環境です。
-④完全実力主義
-年齢・社歴は一切不問。
-「誰が言ったか」より「数字と成果」が全ての評価基準。
-順番待ちなくキャリアを駆け上がれます。
-⑤市場価値の高い「動画マーケ」を極める
-今最も需要があるTikTokやShortsなどの「ショート動画」領域で、
-モノを売るための最先端のライティング・構成力が身につきます。</t>
-  </si>
-  <si>
-    <t>東京</t>
-  </si>
-  <si>
-    <t>350万円~500万円（月給 25万円~40万円）</t>
-  </si>
-  <si>
-    <t>350</t>
-  </si>
-  <si>
-    <t>500</t>
-  </si>
-  <si>
-    <t>20歳~29歳
-性別不問
-外国籍NG
-学歴不問
-職種未経験OK
-業種未経験OK
-【必須】
-・成長意欲がある方
-・何事に対しても能動的にアクションが取れる方</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>【歓迎】
-・広告・マーケティング業界に興味がある方
-・地頭が良く、自分の言葉で論理的に対話ができる方
-・「いくら稼ぎたい」「何をやりたい」という明確な野心をお持ちの方
-・変化に柔軟で、行動量で成果を追求できる方
-・嘘をつかず、フィードバックを素直に吸収して即改善できる方
-・バックオフィスではなく、フロントで戦う気概のある方
-・モチベーションが高く、野心がある方
-【前職のご経験】
-・法人/個人営業職
-・販売・接客職
-・コールセンター（アウトバウンド）　
-・塾講師・教育関連
-・カスタマーサクセス/サポート
-・ベンチャー経験者</t>
-  </si>
-  <si>
-    <t>こんな求職者の方にご提案下さい
-面接確約条件あり
- 以下に該当する方は書類選考免除となります
-21歳〜25歳
-学歴不問
-営業経験者（法人・個人問わず／年数問わず）</t>
-  </si>
-  <si>
-    <t>35名</t>
-  </si>
-  <si>
-    <t>700万円以上: 4 Documents_passed, 0 Job_offer
-450万円~699万円: 22 Documents_passed, 0 Job_offer
-300万円~449万円: 87 Documents_passed, 5 Job_offer
-300万円未満: 32 Documents_passed, 0 Job_offer</t>
-  </si>
-  <si>
-    <t>145</t>
-  </si>
-  <si>
-    <t>3.4%</t>
-  </si>
-  <si>
     <t>ケイアイスター不動産株式会社</t>
   </si>
   <si>
     <t>http://ki-group.co.jp/</t>
   </si>
   <si>
-    <t>1990年</t>
-  </si>
-  <si>
-    <t>https://circus-job.com/search/71634</t>
-  </si>
-  <si>
-    <t>【面接確約※条件あり｜未経験歓迎】土地を買う法人営業/月間残業時間20時間/女性の育休取得実績100%！ | circus</t>
-  </si>
-  <si>
-    <t>（その他不動産・建築・土木、デベロッパー、建設（ゼネコン）・土木、不動産仲介・売買、不動産管理、設計・建築）</t>
-  </si>
-  <si>
-    <t>用地仕入</t>
-  </si>
-  <si>
-    <t>メンバー、リーダー</t>
-  </si>
-  <si>
-    <t>【仕事概要】
-戸建て分譲住宅用地（建売住宅用地）の仕入れ、建物完成後に不動産仲介業者様に販売して頂けるように営業活動をするお仕事です。
-土地仕入れから建物販売までを一貫して管理するため、とてもヤリガイのあるお仕事です。
-【仕事詳細】
-分譲住宅を建てるための用地仕入れをお任せします。
-仕事の流れ
-(1)担当エリア内の不動産仲介業者を訪問（1日10件前後）
-(2)雑談して仲良くなりつつ、情報のヒアリングや用地の情報収集
-(3)仕入れ値、販売価格を考え、仕入れ計画を立案
-（間取りplan、立地place、価格priceのPPPがポイント！設計など他部門と協力し協力して作り上げます）
-(4)施工部門へ引継ぎ
-(5)住宅完成後は、仲介業者やグループ会社に販売して頂けるように営業活動をするお仕事です。
-★ポジション相談可能＆必要であれば会社説明を人事が実施いたします★</t>
-  </si>
-  <si>
-    <t>宮城、福島、埼玉、群馬、茨城、千葉、神奈川、愛知、静岡、大阪、兵庫、福岡、熊本、滋賀、東京</t>
-  </si>
-  <si>
-    <t>350万円~600万円（月給 25万円~50万円）</t>
-  </si>
-  <si>
-    <t>600</t>
-  </si>
-  <si>
-    <t>20歳~39歳
-性別不問
-外国籍NG
-高卒以上
-職種未経験OK
-業種未経験OK
-下記すべてを満たす方
-・高校卒業以上
-・普通運転免許（AT限定可）
-※入社までに取得いただければ大丈夫です。</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>高卒</t>
-  </si>
-  <si>
-    <t>以下の方はさらに条件優遇します。
-・不動産営業各種（賃貸・売買仲介営業、新築中古マンション営業など）経験している方
-・宅建士（宅地建物取引士）をお持ちの方　
-・マネジメント経験をお持ちの方
-活躍している社員は、飲食店員、販売スタッフ、旅行代理店窓口、カーディーラー、保険代理店営業、MR、スポーツインストラクターのほか、異業界出身の方がほとんどです！</t>
-  </si>
-  <si>
-    <t>こんな求職者の方にご提案下さい
-面接確約条件あり
- 以下に該当する方は書類選考免除となります
-20歳〜39歳
-学歴不問
----------------------------------------
- 2026/1/31までのご推薦限定
----------------------------------------
-※確約要件に当てはまらなくても、通常の選考も大募集中です！ぜひエントリーください。
-■エントリー要件（下記、いずれかに該当する場合は該当）
-・20代 且つ 下記経験が1年以上 ※いずれか
-　　∟営業職もしくは販売・サービス職
-　　∟不動産業界（職種問わず）
-・30代 且つ 下記経験が3年以上 ※いずれか
-　　∟営業職もしくは販売・サービス職
-　　∟不動産業界（職種問わず）
-　※経験定義→正社員/契約社員/派遣社員/業務委託社員での就業経験
-・30代までの宅地建物取引士（合格含む）
-■お願い事項
-・面接確約のため、ご推薦時に「面接候補日」の登録をお願いいたします！
-・面接候補日は「土日以外」で「2日程以上」をご入力ください。</t>
-  </si>
-  <si>
-    <t>9名</t>
-  </si>
-  <si>
-    <t>700万円以上: 1 Documents_passed, 0 Job_offer
-450万円~699万円: 6 Documents_passed, 2 Job_offer
-300万円~449万円: 18 Documents_passed, 2 Job_offer
-300万円未満: 12 Documents_passed, 2 Job_offer</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>16.2%</t>
-  </si>
-  <si>
     <t>株式会社テラスカイ・テクノロジーズ</t>
   </si>
   <si>
     <t>https://www.terrasky-tech.co.jp/</t>
   </si>
   <si>
-    <t>2021年</t>
-  </si>
-  <si>
-    <t>https://circus-job.com/search/47787</t>
-  </si>
-  <si>
-    <t>【ITサポート／完全未経験OK！】【カスタマーサクセスの良さ×エンジニアの面白さがある職種】導入実績6000件以上！／年間平均30万円の給与アップ／土日祝休み／年間休日121日／平均残業8時間／有休消化率80%越え／福利厚生充実／4カ月の手厚い研修あり！ | circus</t>
-  </si>
-  <si>
-    <t>（SIer・SES）</t>
-  </si>
-  <si>
-    <t>カスタマーサクセス（法人向け）</t>
-  </si>
-  <si>
-    <t>【Salesforceカスタマーサクセスエンジニアの仕事内容】
-お客様先常駐にて「Salesforceをより活用していくため」のサポートや、運用提案、システムのカスタマイズ、システム運用におけるオペレーションサポートなどを行っていくお仕事です。
-Salesforce利用における支援のスペシャリストとして知識を身につけ、お客様とのコミュニケーションを大事にカスタマーサクセスを実現します。
-＜配属先での業務例＞
-Salesforceを利用することを推進し、利用のみならずSalesforceの運用実行と改善策の提案、更には業務推進に係る戦略立案を行うなど業務は配属先によって異なり多岐に渡ります。
-■法人顧客の営業活動におけるDX推進やシステム（Salesforce）の活用改善サポート
-■システム（Salesforce）利用に関するレクチャーなどのユーザーサポート
-■ヘルプデスク として問い合わせ対応（障害・改善要望などの一次窓口）
-■標準画面のカスタマイズ・項目追加
-■ユーザー登録・変更などアカウント管理
-■年3回のバージョンアップに伴う対応
-■マニュアル作成・更新
-■他システムとのデータ連携・管理
-■そのほかお客様とのMTG参加や専門的知見に基づいたご提案
-■関係部署・関係ベンダーとの情報連携における窓口業務
-■システムの運用保守・設計開発・導入検討や組織整備
-など
-業務で必要となる知識は、入社後の研修で習得できます。
-＜入社～配属までの流れ＞
-〇入社3～4か月間　　初期研修
-・Salesforce基礎研修
-・学習＋現場での実例に基づいた模擬課題研修
-　└（「認定アドミニストレーター」「認定Platformアプリケーションビルダー」取得に向けた研修）
-経験豊富な講師陣が在籍し、質問しやすい環境です。
-テラスカイ・テクノロジーズ独自のカリキュラム（e-learning・ハンズオン・定着確認テスト・模擬課題）を活用し、未経験からでも専門知識を効率的に学べます。
-〇入社4～5か月目　　 配属～お客様先での業務開始
-各種資格試験に合格し研修修了後、お客様先のプロジェクトにデビュー。
-配属についてはスキルや個々人の適性を考慮し、決定します。
-研修で身に着けた知識や実践力を活かして、Salesforceシステムの管理や標準機能での改修（ノーコード）、お客様の課題解決・ご要望の実現を、お客様組織の一員として行っていただきます。
-業務開始後も研修講師からの継続的なサポートや、ナレッジ共有会や勉強会、上位資格の研修カリキュラム提供など、お客様への貢献を通した自己成長の機会を支援します。
-〇IT基礎研修
-https://www.wantedly.com/companies/company_1522945/post_articles/878188
-★そのほか研修で成長していく秘訣や研修講師の人柄がわかる記事もございます★
-【活かせるスキル】
-・主体性
-・学習意欲
-・貢献意欲
-・改善思考
-【キャリアについて】
-お客様への貢献が自己成長・多種多様なキャリアの実現に繋がっていきます。
-・業務を通して自身の知見を深め、お客様に信頼されるカスタマーサクセスのエキスパートに
-・実務経験を積み上位資格を取得し、Salesforceに精通した業務支援・活性化のコンサルタントに
-・デベロッパー資格を習得し、Salesforce独自のプログラミング言語を用いた開発ポジションに
-・お客様向けのワークショップや外部研修およびテラスカイ・テクノロジーズ社内研修の講師に</t>
-  </si>
-  <si>
-    <t>336万円~350万円（月給 28万円~29.1万円）</t>
-  </si>
-  <si>
-    <t>336</t>
-  </si>
-  <si>
-    <t>20歳~34歳
-性別不問
-外国籍OK
-高卒以上
-職種未経験OK
-業種未経験OK
-・日本での🔶正社員🔶雇用での勤続年数1年以上  
-・転職回数が4回（当社で5社目まで）
-▼外国籍の方の場合
-・上記の要件且つ、N1・就労ビザ取得済みの方（取得予定NG）</t>
-  </si>
-  <si>
-    <t>▼求める人物像
-‧明るくハキハキしたコミュニケーションが取れる方
-・新しい知識を習得するために“調べる”という行動を起こせる方
-・お客様の課題解決に力を発揮し、直接喜びや感謝の声を聞ける仕事がしたい方
-・急成長中のIT企業の初期メンバーとして、会社を一緒に創っていきたい方
-「Salesforceを本気で学びたい！」「Salesforceでキャリアを築いていきたい！！」という意欲を重視します。
-文系・理系も問いません。8割以上の先輩社員が業界未経験からスタートして活躍している環境です。
-▼直近での内定者の経験業界情報
-24歳／保険業界／営業職
-27歳／福祉業界／介護職
-26歳／人材業界／広告営業
-23歳／貿易関連／事務職</t>
-  </si>
-  <si>
-    <t>こんな求職者の方にご提案下さい
-面接確約条件あり
- 以下に該当する方は書類選考免除となります
-20歳〜34歳
-高卒以上
-・27歳までの女性に限り雇用形態不問
-・転職回数3回（当社で4社目まで）
-・経歴に6ヶ月以上のブランクがないか（子育て・介護・職業訓練校での学習などの場合は免除とします）</t>
-  </si>
-  <si>
-    <t>24名</t>
-  </si>
-  <si>
-    <t>700万円以上: 0 Documents_passed, 0 Job_offer
-450万円~699万円: 17 Documents_passed, 1 Job_offer
-300万円~449万円: 98 Documents_passed, 7 Job_offer
-300万円未満: 20 Documents_passed, 2 Job_offer</t>
-  </si>
-  <si>
-    <t>135</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>7.4%</t>
-  </si>
-  <si>
     <t>キュリオシティ株式会社</t>
   </si>
   <si>
     <t>https://curiosity-biz.co.jp/</t>
   </si>
   <si>
-    <t>10 ~ 30名</t>
-  </si>
-  <si>
-    <t>1995年</t>
-  </si>
-  <si>
-    <t>https://circus-job.com/search/281456</t>
-  </si>
-  <si>
-    <t>【ITコンサル】 ◆テレアポ無し、営業ゼロ／伴走型コンサル／未経験から課題解決のプロへ！／人柄重視のコンサルタント／IT知識がゼロでも大丈夫！ | circus</t>
-  </si>
-  <si>
-    <t>（ITコンサルティング、SIer・SES、戦略・経営コンサルティング）</t>
-  </si>
-  <si>
-    <t>業務プロセスコンサルタント、カスタマーサクセス（法人向け）、営業支援・プリセールス</t>
-  </si>
-  <si>
-    <t>メンバー、リーダー、管理職（課長・部長）、事業責任者</t>
-  </si>
-  <si>
-    <t>あなたにお任せしたいのは、お客様の困ったを一緒に考え、解決へと導いていくお仕事です。
-ITの専門知識がなくても、入社後にじっくり学べます！
-▼ Step1：まずは「話を聞く」ことからスタート！
-既存のお客様へ「どんな業務をしているか？」「今どんなことに困っているか？」を丁寧にヒアリング。
-現場の声に耳を傾け、業務の流れや使っているシステム等把握して、課題を一緒に整理していきます。
-▼ Step2：一緒に解決策を検討！
-見えてきた課題に対して、「もっと効率よくできないか？」「こんな仕組みに変えたらどうか？」等、改善策を提案します。
-難しく考える必要はなく、お客様が「なるほど！」と納得してくれるように、わかりやすく伝えることが大切です。
-▼ Step3：提案したプロジェクトをカタチに！
-提案が採用されたら、実際にプロジェクトを進めていきます。
-最初は先輩と一緒にプロジェクトに参加するのでご安心ください！
-【実際の課題解決例】
-～手作業が多すぎて困っていた企業様に、仕組みで解決を提案！～
-課題：それぞれの部署がバラバラのシステムを使っていて、手作業が多く大変だった
-目指したこと：ムダな作業をなくして、仕事をもっとスムーズに進めたい
-解決策：業務の流れを整理して、使うシステムを一つにまとめる提案を実施
-結果：手間のかかる作業が減り、「仕事がラクになった」と現場からも好評！
-【入社後の受け入れ体制】
-入社後は、まず先輩社員のサポートを受けながらプロジェクトに参加。
-長年お付き合いのあるお客様の案件が多く、落ち着いた環境で仕事をスタートできます。
-週1回は社内で勉強会を開催しており、ITやコンサルの知識がゼロでも、基礎からしっかり学べる環境があります。
-研修や学習サポートは、誰もが知る有名企業出身者が担当。
-実践で役立つ考え方やスキルを、丁寧にレクチャーしてくれます。
-いきなり一人で任されるなんてことはありません。
-段階的にスキルと経験を身につけ、将来的にはあなた自身がプロジェクトを任される存在へ。
-安心してスタートできる体制が整っています。
-※業務内容の変更有無：なし</t>
-  </si>
-  <si>
-    <t>420万円~1,000万円（月給 33万円~45万円）</t>
-  </si>
-  <si>
-    <t>420</t>
-  </si>
-  <si>
-    <t>1000</t>
-  </si>
-  <si>
-    <t>22歳~40歳
-性別不問
-外国籍NG
-学歴不問
-職種未経験OK
-業種未経験OK
-・職種未経験歓迎！
-・業種未経験歓迎！
-・社会人経験1年以上の方
-＼以下に当てはまる方を歓迎します！／
-■何かしらのプロジェクトワークのご経験をお持ちの方（年数・業界不問）
-■チームリーダーやSVなど、マネジメント経験のある方（年数不問・飲食業界を除く）</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>＼こんな方にピッタリ！／
-□コミュニケーションが好きな方
-□自分を成長させるための努力ができる方
-□新しい物事に対して前向きな考え方ができる方
-□お客様に感謝されている実感が得たい方
-★先輩の前職はさまざま！
-営業事務、SV、コールセンター、社内SE、公務員など。
-どの方も「話を聞く力」「相手に伝える力」など、これまでの経験を活かして活躍中です！</t>
-  </si>
-  <si>
-    <t>こんな求職者の方にご提案下さい
-面接確約条件あり
- 以下に該当する方は書類選考免除となります
-22歳〜38歳
-学歴不問
-・システム導入など業務改善、マニュアル整備のご経験がある方
-・SE経験をお持ちの方</t>
-  </si>
-  <si>
-    <t>46名</t>
-  </si>
-  <si>
-    <t>700万円以上: 0 Documents_passed, 0 Job_offer
-450万円~699万円: 22 Documents_passed, 4 Job_offer
-300万円~449万円: 28 Documents_passed, 2 Job_offer
-300万円未満: 4 Documents_passed, 0 Job_offer</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>11.1%</t>
-  </si>
-  <si>
-    <t>10万円</t>
-  </si>
-  <si>
     <t>株式会社はなまる</t>
   </si>
   <si>
@@ -1040,251 +454,10 @@
     <t/>
   </si>
   <si>
-    <t>301 ~ 500名</t>
-  </si>
-  <si>
-    <t>1998年</t>
-  </si>
-  <si>
-    <t>https://circus-job.com/search/114717</t>
-  </si>
-  <si>
-    <t>【法人営業】未経験OK🔶土日祝休み🔶本田圭佑氏のCMで知名度があり営業しやすい🔶入社1年で月収50万円以上も可能 | circus</t>
-  </si>
-  <si>
-    <t>（小売×自動車）</t>
-  </si>
-  <si>
-    <t>仕入れ・バイヤー、フィールドセールス（法人向け）</t>
-  </si>
-  <si>
-    <t>企業様から事故車や災害などでダメージを負った車（損害車）の査定・買取を行う営業のお仕事です。
-＜具体的な仕事の流れ＞
-▼法人のお客様の元へ訪問
-自動車修理工場やカーディーラー、タクシー会社などへ社用車で訪問します。
-▼車の状態チェック
-年代・車種といった状態を査定システムで確認します。
-▼買取価格をご提示
-▼成約
-場合に応じてお客様との金額交渉を行います。
-お客様に納得していただき、買取が決まれば成約です！
-━━━━━━━━━━━━━━━━━━
-　　具体的な商談のイメージは？
-━━━━━━━━━━━━━━━━━━
-お客様おもとに、いつ・何台の損害車が届くかは、お客様自身もわかりません。
-そのため、「損害車が来た時にお客様から連絡を頂ける関係作り」が重要となります！
-主な商談相手は、工場のひとり社長さんや職人さん。
-いかに相手の懐に入り、人として気に入ってもらえるかがポイントです！
-対人関係力は求められますが、当社はダメージカー業界でトップクラスのシェアを誇っているため、お客様からの知名度も高く、営業はしやすい環境です。
-━━━━━━━━━━━━━━━━━━
-　“成果が出やすい営業”のヒミツは？
-━━━━━━━━━━━━━━━━━━
-🔶未経験でも安心の研修！
-約1ヶ月間は研修です。1週目は、座学で業界や社内システム、査定の仕方などを学びます。
-2週目は先輩の商談に同行。3週目以降は先輩に同行してもらいながら、独り立ちを目指していただきます。
-70%以上の方が未経験スタートで活躍しているので、安心してチャレンジできます！
-🔶契約チャンスが豊富
-中古車のほか、一般的に価値がつきにくいダメージカー（事故車や損害車）など、どんな車でも買取対象のため、契約チャンスは豊富。
-成約率が高く、成果を正当に評価されるから収入やキャリアアップに直結しやすいです。
-🔶成果が出やすい事業モデル
-はなまるでは、海外110ヶ国への販路をもつ自社オークションサイトや、実店舗と幅広い販路があります。
-また、クルマの仕入れ～流通～販売までを自社で一括で行ない、中間コストを削減可能。
-どんなクルマにも高い価値を付けられるからこそ、未経験から成果を出しやすいのです。
-━━━━━━━━━━━━━━━━━━
-　　　　　  入社後の流れ
-━━━━━━━━━━━━━━━━━━
-1週目：『座学』
-・業界に関すること
-・事業内容に関すること
-・社内評価制度の勉強 など
-▼
-2週目：『営業同行』
-先輩社員に同行して現場の雰囲気を知ります。
-▼
-３～4週目：『OJT研修』
-先輩に同行していただきながら自身のお客様先へ訪問！
-OJT研修で実践的な知識・スキルを学びます。
-▼
-1か月目：『晴れてひとり立ち』
-個人の成長に応じてひとり立ちの時期は異なりますが、
-はやくて1ヶ月で独り立ちしていただきます！
-━━━━━━━━━━━━━━━━━━
-　早期の給与＆キャリアアップが可能
-━━━━━━━━━━━━━━━━━━
-Sランク～Eランクまで6つのランクがあり、それぞれ明確な給与やインセンティブの条件を設けています。
-3ヶ月の平均粗利で都度ランクが決定するので、成果を出せば入社1年目から月収50万円超も可能です！
-キャリアに関しても、早期にキャリアアップを叶えられる環境・制度がございます！
-実際に20代の5人に1人が役職者となっております。</t>
-  </si>
-  <si>
-    <t>大阪、東京、神奈川、埼玉、愛知、宮城、福岡、北海道、岩手、新潟、石川、長野、静岡、鳥取、広島、香川、茨城、京都、鹿児島、沖縄、熊本、岐阜、群馬、千葉、兵庫</t>
-  </si>
-  <si>
-    <t>330万円~400万円（月給 27.5万円~29.5万円）</t>
-  </si>
-  <si>
-    <t>330</t>
-  </si>
-  <si>
-    <t>20歳~35歳
-男性限定
-外国籍NG
-高卒以上
-職種未経験OK
-業種未経験OK
-・高卒以上
-・数字を追った顧客折衝経験（販売や営業など）
-・普通自動車免許保持</t>
-  </si>
-  <si>
-    <t>・年収500万円以上稼ぎたい！という向上心のある方
-・早期で支店長などの役職につきたい方
-・販売や営業において活躍されていた方</t>
-  </si>
-  <si>
-    <t>58名</t>
-  </si>
-  <si>
-    <t>700万円以上: 0 Documents_passed, 0 Job_offer
-450万円~699万円: 19 Documents_passed, 5 Job_offer
-300万円~449万円: 94 Documents_passed, 3 Job_offer
-300万円未満: 26 Documents_passed, 1 Job_offer</t>
-  </si>
-  <si>
-    <t>139</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>6.5%</t>
-  </si>
-  <si>
     <t>ピアス株式会社</t>
   </si>
   <si>
     <t>https://www.pias.co.jp/</t>
-  </si>
-  <si>
-    <t>1947年</t>
-  </si>
-  <si>
-    <t>https://circus-job.com/search/278119</t>
-  </si>
-  <si>
-    <t>【美容部員／カバーマーク】未経験歓迎★安定の国内大手美容メーカー★充実の研修制度があるから安心★賞与3回・ノルマなし・福利厚生充実 | circus</t>
-  </si>
-  <si>
-    <t>（日用品・生活雑貨メーカー、不動産仲介・売買、不動産管理、美容・エステ、病院・クリニック）</t>
-  </si>
-  <si>
-    <t>美容サービス（美容部員・エステティシャン・美容師等）</t>
-  </si>
-  <si>
-    <t>◆カバーマークのご紹介◆
-カバーマークは国内大手美容メーカー「ピアスグループ」のブランドで、全国の主要百貨店に店舗を展開しています。
-ファンデーションのエキスパートブランドとして10種類100色以上のファンデーションを取り揃え、スキンケア・ポイントメイクアップ製品など多数のラインナップがあります。
-◆お仕事内容◆
-百貨店で化粧品のカウンセリング販売を行っていただきます。
-○カウンセリング
-ご来店されたお客様のお悩みやご要望をヒアリングします。
-普段ご使用の化粧品や生活習慣のお伺い、お肌状態の視診・触診を行います。
-○ビューティサービス
-お客様のご要望に合わせて、お顔やお手元に製品をつけさせていただき、製品のご提案をしていただきます。
-◆お仕事の魅力◆
-★ファンデーションは10種類以上・100色以上のラインナップ
-様々な肌悩みに対応できる豊富なバリエーションを揃えているので、どんな方でもお好みの仕上がりのファンデーションを見つけることができます。
-濃いシミやあざのカバーなど、メイクアップでは隠しきれないと諦めていたお客様のお悩みをその場で解決して喜んでいただけることは、とてもやりがいを感じられます。
-★感動を提供できる
-タッチアップ後、お客様が綺麗にカバーできたお肌を見て手鏡を離さず、ずっとご自身のお顔を見てくださる。
-そうした姿を間近で見られることが最高のやりがいです。
-★長く愛され続けるブランド
-カバーマークの製品は幅広い世代の肌悩みを解決することができるため、親子3代にわたってご愛用されるお客様もいらっしゃり、お客様と深い信頼関係を築けます。
-◆1日の流れ（早番勤務例）◆
-09:30　出勤・開店準備
-10:00　接客・カウンセリング
-13:00　ランチ休憩（60分）
-14:00　接客・カウンセリング
-16:00　休憩（30分）
-16:30　接客・カウンセリング
-18:30　退勤（残業はほとんどありません）
-◆ご入社後の流れ◆
-(１)接客研修（オンライン6日間）
-ビジネスマナー、美容部員としての心構え、皮膚理論、化粧品学などの基礎を学びます。
-(２)ブランド研修（対面7日　※基本的に大阪開催）
-ブランドの歴史やコンセプト、製品知識、カウンセリング・メイクアップの技術を習得します。
-※遠方の方の交通費・宿泊費はすべて会社負担です
-(３)店舗OJT
-店舗では先輩スタッフが店頭業務や接客の流れを伝え、先輩の手つきを見せてもらいながら何度もタッチアップの練習をし、アドバイスしてもらえるので一人で悩むこともありません。
-慣れるまでは接客は先輩と一緒に行ない、個人差はありますが早い方だと入店1ヵ月程度で1人立ちとなります。
-(４)スキルアップ研修
-その後も3年間にわたってメイクアップ・スキンケアに関する定期的な研修カリキュラムがあり、ビューティカウンセラーとして専門性を高めることができます。
-◆豊富なキャリアパス◆
-(１)店舗でのキャリアアップ
-経験を積みながらチーフ・エリアマネージャー・ショップディレクターへとステップアップします。
-(２)ブランド異動
-ピアスグループには美容・健康にかかわる様々なブランドがあります。
-3年以上勤務して一定の評価を得ると、他ブランドへの異動希望ができます。
-(３)職種転換
-ピアスグループのオフィスワークへ職種転換希望ができます。
-事務職・広報・マーケティング・採用担当・研修講師など様々なキャリアパスがあります。</t>
-  </si>
-  <si>
-    <t>東京、神奈川、埼玉、千葉、大阪、京都、兵庫</t>
-  </si>
-  <si>
-    <t>306万円~471万円（月給 21.8万円~35.5万円）</t>
-  </si>
-  <si>
-    <t>306</t>
-  </si>
-  <si>
-    <t>471</t>
-  </si>
-  <si>
-    <t>20歳~34歳
-女性限定
-外国籍NG
-高卒以上
-職種未経験OK
-業種未経験OK
-・高卒以上
-★資格などお持ちでない方も大歓迎
-★入社したスタッフの約80％は未経験入社です</t>
-  </si>
-  <si>
-    <t>《ブランド理解》
-応募ブランドの接客を受けたことがあり、ブランドや接客スタイルを理解している
-《人物面》
-・カウンセリングや提案販売の具体的な成功体験を話せる
-・目標への達成意欲が高い方、定量的な成果実績がある
-・新しい事を覚えることを苦にせず、これまでの仕事でも向上心を持って業務に取り組んでいた
-・過去の失敗や自身の苦手なことなども隠さず話せる素直さがある
-・お客様や同僚に対に対してホスピタリティを発揮した具体的事例を話せる、またはそういう仕事をしていきたいと感じられる発言がある
-《コミュニケーション》
-・挨拶がしっかりとできる(入室時の「こんにちは」終了時の「ありがとうございました」)
-・清潔感があり、笑顔で話せる
-・さまざまな世代の方とも物怖じせずに話ができる
-・相手の気持ちや意図を汲み取ることに長けている
-・自分の考えを自分の言葉で的確に伝えられる（具体的なエピソードなども交えながら話せる方はカウンセリング接客を行うイメージがつく）</t>
-  </si>
-  <si>
-    <t>31名</t>
-  </si>
-  <si>
-    <t>700万円以上: 1 Documents_passed, 0 Job_offer
-450万円~699万円: 0 Documents_passed, 0 Job_offer
-300万円~449万円: 18 Documents_passed, 3 Job_offer
-300万円未満: 25 Documents_passed, 5 Job_offer</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>18.2%</t>
   </si>
   <si>
     <t>BCC株式会社</t>
@@ -2115,7 +1288,7 @@
   <dimension ref="A1:AP130"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12:AG152"/>
+      <selection activeCell="D5" sqref="D5:AG11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2552,712 +1725,292 @@
       <c r="C5" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="S5" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="T5" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="W5" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="X5" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y5" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z5" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="AA5" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AB5" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AC5" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="AD5" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="AE5" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="AF5" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="AG5" s="1" t="s">
-        <v>90</v>
-      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="3"/>
+      <c r="AE5" s="3"/>
+      <c r="AF5" s="3"/>
+      <c r="AG5" s="1"/>
     </row>
     <row r="6" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="F6" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="S6" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="T6" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="V6" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="W6" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="X6" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y6" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="Z6" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="AA6" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB6" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AC6" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="AD6" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="AE6" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="AF6" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="AG6" s="1" t="s">
-        <v>90</v>
-      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="1"/>
+      <c r="AC6" s="1"/>
+      <c r="AD6" s="3"/>
+      <c r="AE6" s="3"/>
+      <c r="AF6" s="3"/>
+      <c r="AG6" s="1"/>
     </row>
     <row r="7" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>139</v>
+        <v>97</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>140</v>
+        <v>98</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q7" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="S7" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="T7" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="U7" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="V7" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="W7" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="X7" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y7" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="Z7" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="AA7" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB7" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="AC7" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD7" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="AE7" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="AF7" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="AG7" s="1" t="s">
-        <v>90</v>
-      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="1"/>
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="3"/>
+      <c r="AE7" s="3"/>
+      <c r="AF7" s="3"/>
+      <c r="AG7" s="1"/>
     </row>
     <row r="8" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>160</v>
+        <v>99</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>161</v>
+        <v>100</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="F8" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q8" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="S8" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="T8" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="U8" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="V8" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="W8" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="X8" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y8" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="Z8" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="AA8" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB8" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="AC8" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="AD8" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="AE8" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="AF8" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="AG8" s="1" t="s">
-        <v>90</v>
-      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1"/>
+      <c r="AB8" s="1"/>
+      <c r="AC8" s="1"/>
+      <c r="AD8" s="3"/>
+      <c r="AE8" s="3"/>
+      <c r="AF8" s="3"/>
+      <c r="AG8" s="1"/>
     </row>
     <row r="9" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>178</v>
+        <v>101</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>179</v>
+        <v>102</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q9" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="R9" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="S9" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="T9" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="U9" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="V9" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="W9" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="X9" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y9" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="Z9" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="AA9" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB9" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="AC9" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="AD9" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="AE9" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="AF9" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="AG9" s="1" t="s">
-        <v>200</v>
-      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1"/>
+      <c r="AB9" s="1"/>
+      <c r="AC9" s="1"/>
+      <c r="AD9" s="3"/>
+      <c r="AE9" s="3"/>
+      <c r="AF9" s="3"/>
+      <c r="AG9" s="1"/>
     </row>
     <row r="10" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>201</v>
+        <v>103</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>202</v>
+        <v>104</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="R10" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="S10" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="T10" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="U10" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="V10" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="W10" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="X10" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y10" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="Z10" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AA10" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB10" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="AC10" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="AD10" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="AE10" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="AF10" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="AG10" s="1" t="s">
-        <v>90</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="1"/>
+      <c r="AC10" s="1"/>
+      <c r="AD10" s="3"/>
+      <c r="AE10" s="3"/>
+      <c r="AF10" s="3"/>
+      <c r="AG10" s="1"/>
     </row>
     <row r="11" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>221</v>
+        <v>106</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>222</v>
+        <v>107</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="P11" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q11" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="R11" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="S11" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="T11" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="U11" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="V11" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="W11" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="X11" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y11" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="Z11" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AA11" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB11" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="AC11" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="AD11" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="AE11" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="AF11" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="AG11" s="1" t="s">
-        <v>90</v>
-      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="1"/>
+      <c r="AC11" s="1"/>
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+      <c r="AF11" s="3"/>
+      <c r="AG11" s="1"/>
     </row>
     <row r="12" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>240</v>
+        <v>108</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>241</v>
+        <v>109</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -3292,13 +2045,13 @@
     </row>
     <row r="13" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>242</v>
+        <v>110</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>243</v>
+        <v>111</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -3333,13 +2086,13 @@
     </row>
     <row r="14" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>244</v>
+        <v>112</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>245</v>
+        <v>113</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -3374,10 +2127,10 @@
     </row>
     <row r="15" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>246</v>
+        <v>114</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>247</v>
+        <v>115</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>93</v>
@@ -3415,10 +2168,10 @@
     </row>
     <row r="16" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>248</v>
+        <v>116</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>249</v>
+        <v>117</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>93</v>
@@ -3456,13 +2209,13 @@
     </row>
     <row r="17" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>250</v>
+        <v>118</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>251</v>
+        <v>119</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -3579,13 +2332,13 @@
     </row>
     <row r="20" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>252</v>
+        <v>120</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>253</v>
+        <v>121</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>254</v>
+        <v>122</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -3620,10 +2373,10 @@
     </row>
     <row r="21" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>255</v>
+        <v>123</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>256</v>
+        <v>124</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>93</v>
@@ -3661,13 +2414,13 @@
     </row>
     <row r="22" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>257</v>
+        <v>125</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>258</v>
+        <v>126</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -3702,13 +2455,13 @@
     </row>
     <row r="23" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>259</v>
+        <v>127</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>260</v>
+        <v>128</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -3743,13 +2496,13 @@
     </row>
     <row r="24" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>261</v>
+        <v>129</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>262</v>
+        <v>130</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -3784,13 +2537,13 @@
     </row>
     <row r="25" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>261</v>
+        <v>129</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>262</v>
+        <v>130</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -3825,13 +2578,13 @@
     </row>
     <row r="26" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>263</v>
+        <v>131</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>264</v>
+        <v>132</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -3866,13 +2619,13 @@
     </row>
     <row r="27" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>265</v>
+        <v>133</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>266</v>
+        <v>134</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -3907,10 +2660,10 @@
     </row>
     <row r="28" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>267</v>
+        <v>135</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>268</v>
+        <v>136</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>35</v>
@@ -3948,13 +2701,13 @@
     </row>
     <row r="29" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>269</v>
+        <v>137</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>270</v>
+        <v>138</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -3989,13 +2742,13 @@
     </row>
     <row r="30" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>271</v>
+        <v>139</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>272</v>
+        <v>140</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -4030,13 +2783,13 @@
     </row>
     <row r="31" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>273</v>
+        <v>141</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>274</v>
+        <v>142</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -4071,10 +2824,10 @@
     </row>
     <row r="32" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>275</v>
+        <v>143</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>276</v>
+        <v>144</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>93</v>
@@ -4112,10 +2865,10 @@
     </row>
     <row r="33" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>277</v>
+        <v>145</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>278</v>
+        <v>146</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>35</v>
@@ -4153,13 +2906,13 @@
     </row>
     <row r="34" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>279</v>
+        <v>147</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>280</v>
+        <v>148</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>254</v>
+        <v>122</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -4194,13 +2947,13 @@
     </row>
     <row r="35" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>281</v>
+        <v>149</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>282</v>
+        <v>150</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -4235,10 +2988,10 @@
     </row>
     <row r="36" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>283</v>
+        <v>151</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>284</v>
+        <v>152</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>93</v>
@@ -4276,10 +3029,10 @@
     </row>
     <row r="37" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>285</v>
+        <v>153</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>286</v>
+        <v>154</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>93</v>
@@ -4317,10 +3070,10 @@
     </row>
     <row r="38" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>287</v>
+        <v>155</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>288</v>
+        <v>156</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>93</v>
@@ -4358,13 +3111,13 @@
     </row>
     <row r="39" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>160</v>
+        <v>99</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>161</v>
+        <v>100</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -4399,13 +3152,13 @@
     </row>
     <row r="40" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>289</v>
+        <v>157</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>290</v>
+        <v>158</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>254</v>
+        <v>122</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -4440,13 +3193,13 @@
     </row>
     <row r="41" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>291</v>
+        <v>159</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>292</v>
+        <v>160</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -4481,10 +3234,10 @@
     </row>
     <row r="42" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>293</v>
+        <v>161</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>294</v>
+        <v>162</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>93</v>
@@ -4522,13 +3275,13 @@
     </row>
     <row r="43" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>295</v>
+        <v>163</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>296</v>
+        <v>164</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -4563,10 +3316,10 @@
     </row>
     <row r="44" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>297</v>
+        <v>165</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>298</v>
+        <v>166</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>93</v>
@@ -4604,13 +3357,13 @@
     </row>
     <row r="45" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>299</v>
+        <v>167</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>300</v>
+        <v>168</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -4645,13 +3398,13 @@
     </row>
     <row r="46" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>301</v>
+        <v>169</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>302</v>
+        <v>170</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -4686,10 +3439,10 @@
     </row>
     <row r="47" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>303</v>
+        <v>171</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>304</v>
+        <v>172</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>93</v>
@@ -4727,13 +3480,13 @@
     </row>
     <row r="48" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>259</v>
+        <v>127</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>260</v>
+        <v>128</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -4768,13 +3521,13 @@
     </row>
     <row r="49" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>305</v>
+        <v>173</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>306</v>
+        <v>174</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -4809,10 +3562,10 @@
     </row>
     <row r="50" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>307</v>
+        <v>175</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>308</v>
+        <v>176</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>93</v>
@@ -4891,13 +3644,13 @@
     </row>
     <row r="52" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>279</v>
+        <v>147</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>280</v>
+        <v>148</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>254</v>
+        <v>122</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -4932,10 +3685,10 @@
     </row>
     <row r="53" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>309</v>
+        <v>177</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>310</v>
+        <v>178</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>93</v>
@@ -4973,10 +3726,10 @@
     </row>
     <row r="54" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>311</v>
+        <v>179</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>312</v>
+        <v>180</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>93</v>
@@ -5014,13 +3767,13 @@
     </row>
     <row r="55" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>313</v>
+        <v>181</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>314</v>
+        <v>182</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>254</v>
+        <v>122</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -5055,13 +3808,13 @@
     </row>
     <row r="56" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>313</v>
+        <v>181</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>314</v>
+        <v>182</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>254</v>
+        <v>122</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -5096,13 +3849,13 @@
     </row>
     <row r="57" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>261</v>
+        <v>129</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>262</v>
+        <v>130</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
@@ -5137,13 +3890,13 @@
     </row>
     <row r="58" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>261</v>
+        <v>129</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>262</v>
+        <v>130</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
@@ -5178,10 +3931,10 @@
     </row>
     <row r="59" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>315</v>
+        <v>183</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>316</v>
+        <v>184</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>93</v>
@@ -5219,10 +3972,10 @@
     </row>
     <row r="60" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>317</v>
+        <v>185</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>318</v>
+        <v>186</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>93</v>
@@ -5260,10 +4013,10 @@
     </row>
     <row r="61" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>319</v>
+        <v>187</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>320</v>
+        <v>188</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>35</v>
@@ -5301,10 +4054,10 @@
     </row>
     <row r="62" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>321</v>
+        <v>189</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>322</v>
+        <v>190</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>35</v>
@@ -5342,10 +4095,10 @@
     </row>
     <row r="63" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>323</v>
+        <v>191</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>324</v>
+        <v>192</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>35</v>
@@ -5383,10 +4136,10 @@
     </row>
     <row r="64" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>325</v>
+        <v>193</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>326</v>
+        <v>194</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>93</v>
@@ -5424,10 +4177,10 @@
     </row>
     <row r="65" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>327</v>
+        <v>195</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>328</v>
+        <v>196</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>93</v>
@@ -5465,13 +4218,13 @@
     </row>
     <row r="66" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>329</v>
+        <v>197</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>330</v>
+        <v>198</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
@@ -5506,10 +4259,10 @@
     </row>
     <row r="67" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>331</v>
+        <v>199</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>332</v>
+        <v>200</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>93</v>
@@ -5547,10 +4300,10 @@
     </row>
     <row r="68" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>333</v>
+        <v>201</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>334</v>
+        <v>202</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>93</v>
@@ -5588,13 +4341,13 @@
     </row>
     <row r="69" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>335</v>
+        <v>203</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>336</v>
+        <v>204</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
@@ -5629,13 +4382,13 @@
     </row>
     <row r="70" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>337</v>
+        <v>205</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>338</v>
+        <v>206</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
@@ -5670,10 +4423,10 @@
     </row>
     <row r="71" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>339</v>
+        <v>207</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>340</v>
+        <v>208</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>93</v>
@@ -5711,10 +4464,10 @@
     </row>
     <row r="72" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>341</v>
+        <v>209</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>342</v>
+        <v>210</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>93</v>
@@ -5752,13 +4505,13 @@
     </row>
     <row r="73" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>343</v>
+        <v>211</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>344</v>
+        <v>212</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
@@ -5793,13 +4546,13 @@
     </row>
     <row r="74" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>345</v>
+        <v>213</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>346</v>
+        <v>214</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
@@ -5834,10 +4587,10 @@
     </row>
     <row r="75" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>347</v>
+        <v>215</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>348</v>
+        <v>216</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>93</v>
@@ -5875,10 +4628,10 @@
     </row>
     <row r="76" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>297</v>
+        <v>165</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>298</v>
+        <v>166</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>93</v>
@@ -5916,13 +4669,13 @@
     </row>
     <row r="77" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>269</v>
+        <v>137</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>270</v>
+        <v>138</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
@@ -5957,10 +4710,10 @@
     </row>
     <row r="78" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>349</v>
+        <v>217</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>350</v>
+        <v>218</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>93</v>
@@ -5998,13 +4751,13 @@
     </row>
     <row r="79" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>269</v>
+        <v>137</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>270</v>
+        <v>138</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
@@ -6039,13 +4792,13 @@
     </row>
     <row r="80" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>351</v>
+        <v>219</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>352</v>
+        <v>220</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
@@ -6080,13 +4833,13 @@
     </row>
     <row r="81" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>353</v>
+        <v>221</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>354</v>
+        <v>222</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
@@ -6121,13 +4874,13 @@
     </row>
     <row r="82" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>355</v>
+        <v>223</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>356</v>
+        <v>224</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
@@ -6162,13 +4915,13 @@
     </row>
     <row r="83" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>357</v>
+        <v>225</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>358</v>
+        <v>226</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
@@ -6203,13 +4956,13 @@
     </row>
     <row r="84" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>359</v>
+        <v>227</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>290</v>
+        <v>158</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
@@ -6244,10 +4997,10 @@
     </row>
     <row r="85" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>360</v>
+        <v>228</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>361</v>
+        <v>229</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>93</v>
@@ -6326,13 +5079,13 @@
     </row>
     <row r="87" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>362</v>
+        <v>230</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>363</v>
+        <v>231</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
@@ -6367,10 +5120,10 @@
     </row>
     <row r="88" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>364</v>
+        <v>232</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>365</v>
+        <v>233</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>35</v>
@@ -6408,10 +5161,10 @@
     </row>
     <row r="89" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>366</v>
+        <v>234</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>367</v>
+        <v>235</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>93</v>
@@ -6449,10 +5202,10 @@
     </row>
     <row r="90" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>368</v>
+        <v>236</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>369</v>
+        <v>237</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>93</v>
@@ -6490,13 +5243,13 @@
     </row>
     <row r="91" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>370</v>
+        <v>238</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>371</v>
+        <v>239</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
@@ -6531,13 +5284,13 @@
     </row>
     <row r="92" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>372</v>
+        <v>240</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>373</v>
+        <v>241</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
@@ -6572,10 +5325,10 @@
     </row>
     <row r="93" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>309</v>
+        <v>177</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>310</v>
+        <v>178</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>93</v>
@@ -6613,13 +5366,13 @@
     </row>
     <row r="94" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>374</v>
+        <v>242</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>375</v>
+        <v>243</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
@@ -6654,13 +5407,13 @@
     </row>
     <row r="95" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>376</v>
+        <v>244</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>377</v>
+        <v>245</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
@@ -6695,10 +5448,10 @@
     </row>
     <row r="96" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>378</v>
+        <v>246</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>379</v>
+        <v>247</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>35</v>
@@ -6736,13 +5489,13 @@
     </row>
     <row r="97" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>380</v>
+        <v>248</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>356</v>
+        <v>224</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
@@ -6777,10 +5530,10 @@
     </row>
     <row r="98" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>381</v>
+        <v>249</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>382</v>
+        <v>250</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>93</v>
@@ -6818,13 +5571,13 @@
     </row>
     <row r="99" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>257</v>
+        <v>125</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>258</v>
+        <v>126</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
@@ -6859,10 +5612,10 @@
     </row>
     <row r="100" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>383</v>
+        <v>251</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>384</v>
+        <v>252</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>93</v>
@@ -6900,13 +5653,13 @@
     </row>
     <row r="101" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>385</v>
+        <v>253</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>386</v>
+        <v>254</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
@@ -6941,13 +5694,13 @@
     </row>
     <row r="102" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>259</v>
+        <v>127</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>260</v>
+        <v>128</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
@@ -6982,10 +5735,10 @@
     </row>
     <row r="103" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>387</v>
+        <v>255</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>388</v>
+        <v>256</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>93</v>
@@ -7023,10 +5776,10 @@
     </row>
     <row r="104" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>389</v>
+        <v>257</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>390</v>
+        <v>258</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>35</v>
@@ -7064,13 +5817,13 @@
     </row>
     <row r="105" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>391</v>
+        <v>259</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>392</v>
+        <v>260</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
@@ -7105,13 +5858,13 @@
     </row>
     <row r="106" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>279</v>
+        <v>147</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>280</v>
+        <v>148</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>254</v>
+        <v>122</v>
       </c>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
@@ -7146,13 +5899,13 @@
     </row>
     <row r="107" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>393</v>
+        <v>261</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>394</v>
+        <v>262</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
@@ -7187,10 +5940,10 @@
     </row>
     <row r="108" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>317</v>
+        <v>185</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>318</v>
+        <v>186</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>93</v>
@@ -7228,13 +5981,13 @@
     </row>
     <row r="109" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>395</v>
+        <v>263</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>396</v>
+        <v>264</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
@@ -7269,13 +6022,13 @@
     </row>
     <row r="110" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>261</v>
+        <v>129</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>262</v>
+        <v>130</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
@@ -7310,13 +6063,13 @@
     </row>
     <row r="111" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>261</v>
+        <v>129</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>262</v>
+        <v>130</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
@@ -7351,10 +6104,10 @@
     </row>
     <row r="112" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>397</v>
+        <v>265</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>398</v>
+        <v>266</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>93</v>
@@ -7392,10 +6145,10 @@
     </row>
     <row r="113" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>399</v>
+        <v>267</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>400</v>
+        <v>268</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>93</v>
@@ -7433,10 +6186,10 @@
     </row>
     <row r="114" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>321</v>
+        <v>189</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>322</v>
+        <v>190</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>35</v>
@@ -7474,13 +6227,13 @@
     </row>
     <row r="115" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>401</v>
+        <v>269</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>402</v>
+        <v>270</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
@@ -7515,13 +6268,13 @@
     </row>
     <row r="116" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>403</v>
+        <v>271</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>404</v>
+        <v>272</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
@@ -7556,13 +6309,13 @@
     </row>
     <row r="117" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>405</v>
+        <v>273</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>406</v>
+        <v>274</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
@@ -7597,13 +6350,13 @@
     </row>
     <row r="118" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>353</v>
+        <v>221</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>354</v>
+        <v>222</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
@@ -7638,13 +6391,13 @@
     </row>
     <row r="119" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>407</v>
+        <v>275</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>408</v>
+        <v>276</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
@@ -7679,13 +6432,13 @@
     </row>
     <row r="120" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>409</v>
+        <v>277</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>410</v>
+        <v>278</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
@@ -7720,10 +6473,10 @@
     </row>
     <row r="121" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>411</v>
+        <v>279</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>412</v>
+        <v>280</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>35</v>
@@ -7761,10 +6514,10 @@
     </row>
     <row r="122" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>413</v>
+        <v>281</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>414</v>
+        <v>282</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>93</v>
@@ -7802,10 +6555,10 @@
     </row>
     <row r="123" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>415</v>
+        <v>283</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>416</v>
+        <v>284</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>93</v>
@@ -7843,13 +6596,13 @@
     </row>
     <row r="124" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>417</v>
+        <v>285</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>418</v>
+        <v>286</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>254</v>
+        <v>122</v>
       </c>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
@@ -7884,10 +6637,10 @@
     </row>
     <row r="125" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>419</v>
+        <v>287</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>420</v>
+        <v>288</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>93</v>
@@ -7925,10 +6678,10 @@
     </row>
     <row r="126" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>221</v>
+        <v>106</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>222</v>
+        <v>107</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>35</v>
@@ -7966,13 +6719,13 @@
     </row>
     <row r="127" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>335</v>
+        <v>203</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>336</v>
+        <v>204</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
@@ -8007,13 +6760,13 @@
     </row>
     <row r="128" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>421</v>
+        <v>289</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>422</v>
+        <v>290</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
@@ -8048,10 +6801,10 @@
     </row>
     <row r="129" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>423</v>
+        <v>291</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>424</v>
+        <v>292</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>93</v>
@@ -8089,10 +6842,10 @@
     </row>
     <row r="130" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>423</v>
+        <v>291</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>424</v>
+        <v>292</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>93</v>
@@ -8135,140 +6888,133 @@
     <hyperlink ref="B3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
     <hyperlink ref="G3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
     <hyperlink ref="B4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="G4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="B5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="G5" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="B6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="G6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="B7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="G7" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="B8" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="G8" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="B9" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="G9" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="B10" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="G10" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="B11" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="G11" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="B12" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="B13" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="B14" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="B15" r:id="rId24" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="B16" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="B17" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="B18" r:id="rId27" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="B19" r:id="rId28" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="B20" r:id="rId29" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="B21" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="B22" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="B23" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="B24" r:id="rId33" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="B25" r:id="rId34" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="B26" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="B27" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="B28" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="B29" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="B30" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="B31" r:id="rId40" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="B32" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="B33" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="B34" r:id="rId43" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="B35" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="B36" r:id="rId45" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="B37" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="B38" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="B39" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="B40" r:id="rId49" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="B41" r:id="rId50" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="B42" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="B43" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="B44" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="B45" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="B46" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="B47" r:id="rId56" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="B48" r:id="rId57" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="B49" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="B50" r:id="rId59" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="B51" r:id="rId60" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="B52" r:id="rId61" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="B53" r:id="rId62" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="B54" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="B55" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="B56" r:id="rId65" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="B57" r:id="rId66" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="B58" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="B59" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="B60" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="B61" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
-    <hyperlink ref="B62" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
-    <hyperlink ref="B63" r:id="rId72" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="B64" r:id="rId73" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
-    <hyperlink ref="B65" r:id="rId74" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
-    <hyperlink ref="B66" r:id="rId75" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
-    <hyperlink ref="B67" r:id="rId76" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
-    <hyperlink ref="B68" r:id="rId77" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
-    <hyperlink ref="B69" r:id="rId78" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
-    <hyperlink ref="B70" r:id="rId79" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
-    <hyperlink ref="B71" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
-    <hyperlink ref="B72" r:id="rId81" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
-    <hyperlink ref="B73" r:id="rId82" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
-    <hyperlink ref="B74" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
-    <hyperlink ref="B75" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
-    <hyperlink ref="B76" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
-    <hyperlink ref="B77" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
-    <hyperlink ref="B78" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
-    <hyperlink ref="B79" r:id="rId88" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
-    <hyperlink ref="B80" r:id="rId89" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
-    <hyperlink ref="B81" r:id="rId90" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
-    <hyperlink ref="B82" r:id="rId91" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
-    <hyperlink ref="B83" r:id="rId92" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
-    <hyperlink ref="B84" r:id="rId93" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
-    <hyperlink ref="B85" r:id="rId94" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
-    <hyperlink ref="B86" r:id="rId95" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
-    <hyperlink ref="B87" r:id="rId96" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
-    <hyperlink ref="B88" r:id="rId97" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
-    <hyperlink ref="B89" r:id="rId98" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
-    <hyperlink ref="B90" r:id="rId99" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
-    <hyperlink ref="B91" r:id="rId100" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
-    <hyperlink ref="B92" r:id="rId101" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
-    <hyperlink ref="B93" r:id="rId102" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
-    <hyperlink ref="B94" r:id="rId103" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
-    <hyperlink ref="B95" r:id="rId104" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
-    <hyperlink ref="B96" r:id="rId105" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
-    <hyperlink ref="B97" r:id="rId106" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
-    <hyperlink ref="B98" r:id="rId107" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
-    <hyperlink ref="B99" r:id="rId108" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
-    <hyperlink ref="B100" r:id="rId109" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
-    <hyperlink ref="B101" r:id="rId110" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
-    <hyperlink ref="B102" r:id="rId111" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
-    <hyperlink ref="B103" r:id="rId112" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
-    <hyperlink ref="B104" r:id="rId113" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
-    <hyperlink ref="B105" r:id="rId114" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
-    <hyperlink ref="B106" r:id="rId115" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
-    <hyperlink ref="B107" r:id="rId116" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
-    <hyperlink ref="B108" r:id="rId117" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
-    <hyperlink ref="B109" r:id="rId118" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
-    <hyperlink ref="B110" r:id="rId119" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
-    <hyperlink ref="B111" r:id="rId120" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
-    <hyperlink ref="B112" r:id="rId121" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
-    <hyperlink ref="B113" r:id="rId122" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
-    <hyperlink ref="B114" r:id="rId123" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
-    <hyperlink ref="B115" r:id="rId124" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
-    <hyperlink ref="B116" r:id="rId125" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
-    <hyperlink ref="B117" r:id="rId126" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
-    <hyperlink ref="B118" r:id="rId127" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
-    <hyperlink ref="B119" r:id="rId128" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
-    <hyperlink ref="B120" r:id="rId129" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
-    <hyperlink ref="B121" r:id="rId130" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
-    <hyperlink ref="B122" r:id="rId131" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
-    <hyperlink ref="B123" r:id="rId132" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
-    <hyperlink ref="B124" r:id="rId133" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
-    <hyperlink ref="B125" r:id="rId134" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
-    <hyperlink ref="B126" r:id="rId135" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
-    <hyperlink ref="B127" r:id="rId136" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
-    <hyperlink ref="B128" r:id="rId137" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
-    <hyperlink ref="B129" r:id="rId138" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
-    <hyperlink ref="B130" r:id="rId139" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
+    <hyperlink ref="B5" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B6" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B7" r:id="rId8" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="B8" r:id="rId9" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="B9" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="B10" r:id="rId11" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="B11" r:id="rId12" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="B12" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="B13" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="B14" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="B15" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="B16" r:id="rId17" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="B17" r:id="rId18" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="B18" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="B19" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="B20" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="B21" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="B22" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="B23" r:id="rId24" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="B24" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="B25" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="B26" r:id="rId27" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="B27" r:id="rId28" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="B28" r:id="rId29" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="B29" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="B30" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="B31" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="B32" r:id="rId33" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="B33" r:id="rId34" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="B34" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="B35" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="B36" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="B37" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="B38" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="B39" r:id="rId40" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="B40" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="B41" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="B42" r:id="rId43" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="B43" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="B44" r:id="rId45" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="B45" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="B46" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="B47" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="B48" r:id="rId49" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="B49" r:id="rId50" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="B50" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="B51" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="B52" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="B53" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="B54" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="B55" r:id="rId56" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="B56" r:id="rId57" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="B57" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="B58" r:id="rId59" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="B59" r:id="rId60" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="B60" r:id="rId61" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="B61" r:id="rId62" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="B62" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="B63" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="B64" r:id="rId65" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="B65" r:id="rId66" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="B66" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="B67" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="B68" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="B69" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="B70" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="B71" r:id="rId72" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="B72" r:id="rId73" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="B73" r:id="rId74" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="B74" r:id="rId75" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="B75" r:id="rId76" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="B76" r:id="rId77" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="B77" r:id="rId78" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="B78" r:id="rId79" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="B79" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="B80" r:id="rId81" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="B81" r:id="rId82" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="B82" r:id="rId83" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="B83" r:id="rId84" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="B84" r:id="rId85" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="B85" r:id="rId86" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="B86" r:id="rId87" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="B87" r:id="rId88" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="B88" r:id="rId89" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="B89" r:id="rId90" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="B90" r:id="rId91" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="B91" r:id="rId92" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="B92" r:id="rId93" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="B93" r:id="rId94" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="B94" r:id="rId95" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="B95" r:id="rId96" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="B96" r:id="rId97" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="B97" r:id="rId98" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="B98" r:id="rId99" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="B99" r:id="rId100" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="B100" r:id="rId101" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="B101" r:id="rId102" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
+    <hyperlink ref="B102" r:id="rId103" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
+    <hyperlink ref="B103" r:id="rId104" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
+    <hyperlink ref="B104" r:id="rId105" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
+    <hyperlink ref="B105" r:id="rId106" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
+    <hyperlink ref="B106" r:id="rId107" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
+    <hyperlink ref="B107" r:id="rId108" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
+    <hyperlink ref="B108" r:id="rId109" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
+    <hyperlink ref="B109" r:id="rId110" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
+    <hyperlink ref="B110" r:id="rId111" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
+    <hyperlink ref="B111" r:id="rId112" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
+    <hyperlink ref="B112" r:id="rId113" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
+    <hyperlink ref="B113" r:id="rId114" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
+    <hyperlink ref="B114" r:id="rId115" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
+    <hyperlink ref="B115" r:id="rId116" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
+    <hyperlink ref="B116" r:id="rId117" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
+    <hyperlink ref="B117" r:id="rId118" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
+    <hyperlink ref="B118" r:id="rId119" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
+    <hyperlink ref="B119" r:id="rId120" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
+    <hyperlink ref="B120" r:id="rId121" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
+    <hyperlink ref="B121" r:id="rId122" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
+    <hyperlink ref="B122" r:id="rId123" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
+    <hyperlink ref="B123" r:id="rId124" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
+    <hyperlink ref="B124" r:id="rId125" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
+    <hyperlink ref="B125" r:id="rId126" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
+    <hyperlink ref="B126" r:id="rId127" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
+    <hyperlink ref="B127" r:id="rId128" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
+    <hyperlink ref="B128" r:id="rId129" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
+    <hyperlink ref="B129" r:id="rId130" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
+    <hyperlink ref="B130" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
+    <hyperlink ref="G4" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
